--- a/biology/Histoire de la zoologie et de la botanique/Léon_Vaillant/Léon_Vaillant.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Léon_Vaillant/Léon_Vaillant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Vaillant</t>
+          <t>Léon_Vaillant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Léon Vaillant ou Léon Louis Vaillant est un  zoologiste  français, né le 11 novembre 1834 à Paris et mort le 24 novembre 1914 dans cette même ville.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Vaillant</t>
+          <t>Léon_Vaillant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait des études de médecine et de zoologie à Paris. En 1861, il obtient son titre de docteur de médecine mais continue ses recherches zoologiques sous la direction d’Henri Milne-Edwards (1800-1885). Il reçoit un doctorat de sciences naturelles en 1865[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait des études de médecine et de zoologie à Paris. En 1861, il obtient son titre de docteur de médecine mais continue ses recherches zoologiques sous la direction d’Henri Milne-Edwards (1800-1885). Il reçoit un doctorat de sciences naturelles en 1865.
 S’il travaille d’abord sur les invertébrés, il change d’orientation à partir de 1872. La mort d’Auguste Duméril (1812-1870) laisse vacante la chaire des reptiles et des poissons et Vaillant est pressenti pour le remplacer. Mais Émile Blanchard (1819-1900), qui occupe cette fonction durant sa vacance, souhaite lui aussi l’obtenir. Finalement, Vaillant est choisi.
 De 1880 à 1883, il participe aux expéditions scientifiques du Travailleur et du Talisman qui permettent de rassembler par dragage des collections considérables en Méditerranée, dans l'océan Indien et dans le Pacifique, regroupées en 9 volumes sous la direction de Milne-Edwards. Léon Vaillant publie chez Masson en 1888 le premier volume : "Poissons".
 Louis Joubin, auteur du volume consacré aux Némertiens, lui attribue la découverte d'une nouvelle espèce de Némerte découverte à 640 mètres de profondeur au large des côtes du Soudan, baptisée Amphiporus vaillanti.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Vaillant</t>
+          <t>Léon_Vaillant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,11 +563,13 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Essai sur le système pileux dans l'espèce humaine, 1861, thèse de doctorat médecine.
-De la fécondation dans les cryptogames, F. Savy, Paris 1863, université de Paris[2].
-Recherches sur la famille des Tridacnides, 1865, thèse de doctorat sciences naturelles[3].
+De la fécondation dans les cryptogames, F. Savy, Paris 1863, université de Paris.
+Recherches sur la famille des Tridacnides, 1865, thèse de doctorat sciences naturelles.
 Description d'une espèce nouvelle de Chamaeleon de Madagascar. Bull. Soc. philom., Paris, 1880, (avec A. Grandidier).
 Quelques mots sur Denys de Montfort à propos d'une brochure parue en 1815, Rapport sur les poissons, crustacés et mollusques, 1880, Exposition universelle de 1878, Paris
 Reptiles et Batraciens, Mission dans le pays Comalis. Faune et Flore des Pays Comalis, Afr. orient., 1882.
